--- a/service/sold_test.xlsx
+++ b/service/sold_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Y2 Group Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Y2 Group Project\uon-dsda-22-y2-group-project-team-1\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BD5C22-25EF-485C-AB68-C2CC129400E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAA8011-9D85-4EF0-A8E2-F0F952718EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-9780" windowWidth="38620" windowHeight="21220" xr2:uid="{CB769C34-BEF1-4A50-A5D8-13BBC90AA0BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CB769C34-BEF1-4A50-A5D8-13BBC90AA0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,39 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Property Type</t>
-  </si>
-  <si>
-    <t>Bedrooms</t>
-  </si>
-  <si>
-    <t>Bathrooms</t>
-  </si>
-  <si>
-    <t>Sold Price</t>
-  </si>
-  <si>
-    <t>Sold1</t>
-  </si>
-  <si>
-    <t>Sold2</t>
-  </si>
-  <si>
-    <t>Sold3</t>
-  </si>
-  <si>
-    <t>Sold4</t>
-  </si>
-  <si>
-    <t>Sold5</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>SoldA</t>
   </si>
   <si>
@@ -95,16 +62,49 @@
     <t>Detached</t>
   </si>
   <si>
-    <t>Sold Date</t>
-  </si>
-  <si>
     <t>SoldF</t>
   </si>
   <si>
-    <t>Sold6</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>IP27 9RB</t>
+  </si>
+  <si>
+    <t>SW1E 6DU</t>
+  </si>
+  <si>
+    <t>EH29 9BX</t>
+  </si>
+  <si>
+    <t>N1P 1QA</t>
+  </si>
+  <si>
+    <t>ML7 4EX</t>
+  </si>
+  <si>
+    <t>PO8 9XB</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>property_type</t>
+  </si>
+  <si>
+    <t>bedrooms</t>
+  </si>
+  <si>
+    <t>bathrooms</t>
+  </si>
+  <si>
+    <t>sold_date</t>
+  </si>
+  <si>
+    <t>sold_price</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,36 +474,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -540,13 +540,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>41015</v>
@@ -557,13 +557,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -574,13 +574,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
